--- a/data/trans_orig/P34B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34B01-Edad-trans_orig.xlsx
@@ -651,7 +651,7 @@
         <v>3.211608968309343</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.724802663852525</v>
+        <v>3.724802663852527</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.946230154872211</v>
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.262839840621504</v>
+        <v>1.270669239771387</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.586945042028681</v>
+        <v>2.599439081096788</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.300528819160279</v>
+        <v>3.321772121649976</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.169721614281556</v>
+        <v>2.169589520048738</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.915497877697197</v>
+        <v>2.910046572322228</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.30853192618547</v>
+        <v>3.307986160134606</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.784425942715814</v>
+        <v>1.782478122826549</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.852914310346975</v>
+        <v>2.832499992209377</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.452914448184854</v>
+        <v>3.471897491882983</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.722491305358836</v>
+        <v>1.727873288183765</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.156113816431864</v>
+        <v>3.201682776351528</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.19897190108725</v>
+        <v>4.208629883948372</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.678692415343355</v>
+        <v>2.706760063300386</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.488557547222572</v>
+        <v>3.474777171079357</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.105314306691663</v>
+        <v>4.118311919626601</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.142883134206803</v>
+        <v>2.1281917091558</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.25106271407505</v>
+        <v>3.242238833197167</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.036199787000101</v>
+        <v>4.062468447655386</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.714524587971854</v>
+        <v>1.707376088228875</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.078638467438821</v>
+        <v>3.062214446966766</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.361513879722127</v>
+        <v>3.382319596792868</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.749462078035409</v>
+        <v>2.727865138541293</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.159938198253081</v>
+        <v>3.123794443845069</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.572428441574202</v>
+        <v>3.547556183447074</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.259332483135599</v>
+        <v>2.259657666269575</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>3.171856394125646</v>
+        <v>3.187318493078862</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>3.558377313385368</v>
+        <v>3.567582393893724</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.139576356497448</v>
+        <v>2.141675928501592</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.555397269576135</v>
+        <v>3.567693969946635</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.065036482688193</v>
+        <v>4.084936127529138</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.200438864899076</v>
+        <v>3.216836156604317</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.604774408371847</v>
+        <v>3.591453207492945</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>4.050287296041002</v>
+        <v>4.074755098503203</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.57214898292185</v>
+        <v>2.578575924031581</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>3.50661528341972</v>
+        <v>3.516294902668408</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.978196701008507</v>
+        <v>3.990550094267069</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>3.259384518307968</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3.632500344263191</v>
+        <v>3.632500344263192</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.596762956781516</v>
@@ -878,7 +878,7 @@
         <v>3.093315565668037</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.647641426375513</v>
+        <v>3.647641426375512</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.094867734855827</v>
+        <v>2.139263282159425</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.7047688481318</v>
+        <v>2.693583003780991</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.389501782961811</v>
+        <v>3.389858477802518</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.649196844560577</v>
+        <v>2.642727226270892</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.044269011834182</v>
+        <v>3.050094668349402</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.454279947892978</v>
+        <v>3.442866487279749</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.438517644204045</v>
+        <v>2.449689722827405</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.915257624249652</v>
+        <v>2.949221401468084</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.498145571665316</v>
+        <v>3.48893995713301</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.54250095337248</v>
+        <v>2.596057600696585</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.172187222480144</v>
+        <v>3.137100208422302</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.912510670829541</v>
+        <v>3.895157738709656</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.06784093598516</v>
+        <v>3.064038240906702</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.507237656224012</v>
+        <v>3.487660901934669</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.827305896955942</v>
+        <v>3.828434910577517</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.753027787365614</v>
+        <v>2.756532271501612</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.254783440254746</v>
+        <v>3.278858682701772</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.805021716797263</v>
+        <v>3.785961494353255</v>
       </c>
     </row>
     <row r="13">
@@ -969,7 +969,7 @@
         <v>3.266722662778965</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3.868429374488449</v>
+        <v>3.868429374488448</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>3.064519825451138</v>
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.468531055625254</v>
+        <v>2.466893032239157</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.033567067413017</v>
+        <v>3.003333867647688</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.64083372145176</v>
+        <v>3.661120508168087</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.814307567118768</v>
+        <v>2.80863334217505</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.152285470916739</v>
+        <v>3.158908012146891</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.623955197413686</v>
+        <v>3.62885380181201</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.712731671809832</v>
+        <v>2.716641937198157</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>3.163026874458345</v>
+        <v>3.150704677833994</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3.693064073884594</v>
+        <v>3.689649977694129</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.962990170165051</v>
+        <v>2.945834995292385</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.518975845423359</v>
+        <v>3.506515075111071</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.076044427490336</v>
+        <v>4.08054308345833</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.278664459233251</v>
+        <v>3.283511397104517</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.618080808884105</v>
+        <v>3.594366241577345</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.939280637144441</v>
+        <v>3.936944625034396</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>3.045189848833868</v>
+        <v>3.042706344309754</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.495072127788699</v>
+        <v>3.47236870440754</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.963139931638082</v>
+        <v>3.956611195042368</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.304976665469691</v>
+        <v>3.322662811297357</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.487672009167234</v>
+        <v>3.511247708059493</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.665748339502453</v>
+        <v>3.633624032047974</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.013053380417862</v>
+        <v>3.017388033450542</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.774877711641602</v>
+        <v>2.759521903655869</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.550706257365586</v>
+        <v>3.544750144847948</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.240962176519626</v>
+        <v>3.236432242431163</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.194755651675377</v>
+        <v>3.208768624185533</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.636195739246472</v>
+        <v>3.652888801055307</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.87756398459681</v>
+        <v>3.892795129798402</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.065756140387188</v>
+        <v>4.04739404689514</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.10086117551985</v>
+        <v>4.059742857821083</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.568692743774208</v>
+        <v>3.562807457819823</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.281893785849194</v>
+        <v>3.295450630810158</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.890967715102222</v>
+        <v>3.901881389935081</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.653314461459362</v>
+        <v>3.64543206947108</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.566237609376775</v>
+        <v>3.587068823694849</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.941576758949034</v>
+        <v>3.927468031529</v>
       </c>
     </row>
     <row r="19">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.804162894396872</v>
+        <v>3.783009649156789</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>3.636967584976818</v>
+        <v>3.608504344816249</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4.343162325262474</v>
+        <v>4.368890235229672</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.761938492812762</v>
+        <v>2.757640640074206</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.904061440331899</v>
+        <v>2.918101386830242</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.553147760832705</v>
+        <v>3.565026913483651</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>3.340103809158793</v>
+        <v>3.322909893762605</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>3.34510266015364</v>
+        <v>3.33764313097898</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>3.990398109506786</v>
+        <v>3.990816933830355</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.473909424633041</v>
+        <v>4.481485769487666</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.325629810345453</v>
+        <v>4.27840927306742</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.798715408756851</v>
+        <v>4.815622354034597</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.360548663568536</v>
+        <v>3.374206371507407</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>3.481658243736621</v>
+        <v>3.458932765860764</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>3.976676771602454</v>
+        <v>3.953937813606668</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>3.816959234493182</v>
+        <v>3.798545041758964</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>3.796133939296887</v>
+        <v>3.810821133850392</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>4.299647864699443</v>
+        <v>4.300505359617117</v>
       </c>
     </row>
     <row r="22">
@@ -1296,7 +1296,7 @@
         <v>3.348894713731025</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.924878340118369</v>
+        <v>3.924878340118368</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.268373709508776</v>
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.376907935285778</v>
+        <v>3.446860070221643</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.03452620065717</v>
+        <v>3.000849247193154</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.667728439333611</v>
+        <v>3.632700806810943</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.990893990490165</v>
+        <v>1.968982459962728</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.018536553129842</v>
+        <v>2.018356164917965</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.169673891909875</v>
+        <v>2.157679093772645</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.624006480423809</v>
+        <v>2.648095329340783</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.506546061843397</v>
+        <v>2.490900500841654</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.799278498769592</v>
+        <v>2.801718982701258</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.159701246079001</v>
+        <v>4.21106734671925</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.726231483623454</v>
+        <v>3.71370368324705</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.225141577784323</v>
+        <v>4.224109971028012</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.564842383854516</v>
+        <v>2.563090972135125</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.661904662120684</v>
+        <v>2.664296351417596</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.553968437303606</v>
+        <v>2.546070566878798</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.122289699034859</v>
+        <v>3.132474889387461</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.964020454570929</v>
+        <v>2.991168415612118</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.146056747385867</v>
+        <v>3.167662561824327</v>
       </c>
     </row>
     <row r="25">
@@ -1405,7 +1405,7 @@
         <v>3.304591579402637</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3.892127154019211</v>
+        <v>3.89212715401921</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>2.86815746598248</v>
@@ -1423,7 +1423,7 @@
         <v>3.225458970644491</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>3.723655631239114</v>
+        <v>3.723655631239115</v>
       </c>
     </row>
     <row r="26">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.536746588683711</v>
+        <v>2.542443317227256</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.196651999249368</v>
+        <v>3.198129937075746</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.772132013633025</v>
+        <v>3.788618274048198</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.76988299285618</v>
+        <v>2.763948563365407</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>3.057546396033668</v>
+        <v>3.051946239950124</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>3.481185217592946</v>
+        <v>3.485719079947876</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>2.676867090790226</v>
+        <v>2.68375808671575</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>3.153348555508419</v>
+        <v>3.155550632134171</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>3.660530090929477</v>
+        <v>3.6565851843438</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.7428434647285</v>
+        <v>2.742622059669384</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.407376756124634</v>
+        <v>3.404252389213299</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.990111785971981</v>
+        <v>3.99498219992309</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.963697351204393</v>
+        <v>2.964264481747424</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>3.250465022228013</v>
+        <v>3.248649706267233</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>3.654287336600009</v>
+        <v>3.639924422583641</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>2.82602028082141</v>
+        <v>2.824511466677583</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>3.297145499379032</v>
+        <v>3.29643193625115</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>3.792276657307626</v>
+        <v>3.793376775102618</v>
       </c>
     </row>
     <row r="28">
